--- a/P0019/09_FICHAS/N2-FP-MODELO.xlsx
+++ b/P0019/09_FICHAS/N2-FP-MODELO.xlsx
@@ -1,132 +1,179 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28417"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\S3_Buckets\foa-prod-comp-fenomenologico-bucket\foa_puj_curada\P0019\09_FICHAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{984E5EAE-26D3-403C-845B-6EAC498066B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="36" documentId="13_ncr:1_{984E5EAE-26D3-403C-845B-6EAC498066B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FDBE2CEE-118E-461E-99E0-39D68F63A7AE}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="9570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="93">
-  <si>
-    <t>Código de proyecto</t>
-  </si>
-  <si>
-    <t>Código de producto</t>
-  </si>
-  <si>
-    <t>Nombre del producto</t>
-  </si>
-  <si>
-    <t>Año</t>
-  </si>
-  <si>
-    <t>Autor 1</t>
-  </si>
-  <si>
-    <t>Autor 2</t>
-  </si>
-  <si>
-    <t>Autor 3</t>
-  </si>
-  <si>
-    <t>Descripción (objeto, supuestos, resultados)</t>
-  </si>
-  <si>
-    <t>Tipo de producto</t>
-  </si>
-  <si>
-    <t>Tipo del Modelo</t>
-  </si>
-  <si>
-    <t>área de conocimiento del modelo</t>
-  </si>
-  <si>
-    <t>Se cuenta con archivos  Nativos</t>
-  </si>
-  <si>
-    <t>Archivos del Modelo</t>
-  </si>
-  <si>
-    <t>Software (Nombre y versión)</t>
-  </si>
-  <si>
-    <t>Tipo de Licencia</t>
-  </si>
-  <si>
-    <t>Nivel de consumo de recursos computacionales</t>
-  </si>
-  <si>
-    <t>Codigo de producto asociado 1</t>
-  </si>
-  <si>
-    <t>Codigo de producto asociado2</t>
-  </si>
-  <si>
-    <t>Codigo de producto asociado3</t>
-  </si>
-  <si>
-    <t>Codigo de producto asociado4</t>
-  </si>
-  <si>
-    <t>Codigo de producto asociado5</t>
-  </si>
-  <si>
-    <t>Cantidad de Escenarios simulados</t>
-  </si>
-  <si>
-    <t>Nombre Escenario 1</t>
-  </si>
-  <si>
-    <t>Descripción escenario 1</t>
-  </si>
-  <si>
-    <t>Nombre Escenario 2</t>
-  </si>
-  <si>
-    <t>Descripción escenario 2</t>
-  </si>
-  <si>
-    <t>Nombre Escenario 3</t>
-  </si>
-  <si>
-    <t>Descripción escenario 3</t>
-  </si>
-  <si>
-    <t>Nombre Escenario 4</t>
-  </si>
-  <si>
-    <t>Descripción escenario 4</t>
-  </si>
-  <si>
-    <t>Nombre escenario 5</t>
-  </si>
-  <si>
-    <t>Descripción escenario 5</t>
-  </si>
-  <si>
-    <t>Observaciones</t>
-  </si>
-  <si>
-    <t>Palabras Clave</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="106">
+  <si>
+    <t>CODIGO DE PROYECTO</t>
+  </si>
+  <si>
+    <t>CODIGO DE PRODUCTO</t>
+  </si>
+  <si>
+    <t>NOMBRE DEL PRODUCTO</t>
+  </si>
+  <si>
+    <t>DIRECTORIO</t>
+  </si>
+  <si>
+    <t>AÑO</t>
+  </si>
+  <si>
+    <t>AUTOR 1</t>
+  </si>
+  <si>
+    <t>AUTOR 2</t>
+  </si>
+  <si>
+    <t>AUTOR 3</t>
+  </si>
+  <si>
+    <t>AUTOR 4</t>
+  </si>
+  <si>
+    <t>AUTOR 5</t>
+  </si>
+  <si>
+    <t>DESCRIPCION</t>
+  </si>
+  <si>
+    <t>TIPO DE PRODUCTO</t>
+  </si>
+  <si>
+    <t>TIPO DE MODELO</t>
+  </si>
+  <si>
+    <t>AREA DE CONOCIMIENTO DEL MODELO</t>
+  </si>
+  <si>
+    <t>SE CUENTA CON ARCHIVOS NATIVOS</t>
+  </si>
+  <si>
+    <t>SOFTWARE</t>
+  </si>
+  <si>
+    <t>TIPO DE LICENCIA</t>
+  </si>
+  <si>
+    <t>NIVEL DE CONSUMO DE RECURSOS COMPUTACIONALES</t>
+  </si>
+  <si>
+    <t>CODIGO PRODUCTO ASOCIADO 1</t>
+  </si>
+  <si>
+    <t>CODIGO PRODUCTO ASOCIADO 2</t>
+  </si>
+  <si>
+    <t>CODIGO PRODUCTO ASOCIADO 3</t>
+  </si>
+  <si>
+    <t>CODIGO PRODUCTO ASOCIADO 4</t>
+  </si>
+  <si>
+    <t>CODIGO PRODUCTO ASOCIADO 5</t>
+  </si>
+  <si>
+    <t>CANTIDAD DE ESCENARIOS SIMULADOS</t>
+  </si>
+  <si>
+    <t>NOMBRE ESCENARIO 1</t>
+  </si>
+  <si>
+    <t>DESCRIPCION ESCENARIO 1</t>
+  </si>
+  <si>
+    <t>NOMBRE ESCENARIO 2</t>
+  </si>
+  <si>
+    <t>DESCRIPCION ESCENARIO 2</t>
+  </si>
+  <si>
+    <t>NOMBRE ESCENARIO 3</t>
+  </si>
+  <si>
+    <t>DESCRIPCION ESCENARIO 3</t>
+  </si>
+  <si>
+    <t>NOMBRE ESCENARIO 4</t>
+  </si>
+  <si>
+    <t>DESCRIPCION ESCENARIO 4</t>
+  </si>
+  <si>
+    <t>NOMBRE ESCENARIO 5</t>
+  </si>
+  <si>
+    <t>DESCRIPCION ESCENARIO 5</t>
+  </si>
+  <si>
+    <t>NOMBRE ESCENARIO 6</t>
+  </si>
+  <si>
+    <t>DESCRIPCION ESCENARIO 6</t>
+  </si>
+  <si>
+    <t>NOMBRE ESCENARIO 7</t>
+  </si>
+  <si>
+    <t>DESCRIPCION ESCENARIO 7</t>
+  </si>
+  <si>
+    <t>NOMBRE ESCENARIO 8</t>
+  </si>
+  <si>
+    <t>DESCRIPCION ESCENARIO 8</t>
+  </si>
+  <si>
+    <t>NOMBRE ESCENARIO 9</t>
+  </si>
+  <si>
+    <t>DESCRIPCION ESCENARIO 9</t>
+  </si>
+  <si>
+    <t>NOMBRE ESCENARIO 10</t>
+  </si>
+  <si>
+    <t>DESCRIPCION ESCENARIO 10</t>
+  </si>
+  <si>
+    <t>OBSERVACIONES</t>
+  </si>
+  <si>
+    <t>PALABRAS CLAVE</t>
   </si>
   <si>
     <t>P0019</t>
@@ -138,6 +185,9 @@
     <t>Modelación Carga</t>
   </si>
   <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0019/02_PRODUCTOS/TOMO I INFORME FINAL/TOMO I A/Transporte/Anexos/Modelación Carga.File folder</t>
+  </si>
+  <si>
     <t>INVIAS</t>
   </si>
   <si>
@@ -162,9 +212,6 @@
     <t>Si</t>
   </si>
   <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0019/02_PRODUCTOS/TOMO I INFORME FINAL/TOMO I A/Transporte/Anexos/Modelación Carga</t>
-  </si>
-  <si>
     <t xml:space="preserve">TransCad </t>
   </si>
   <si>
@@ -189,46 +236,49 @@
     <t>Este escenario proyecta un aumento en los volúmenes de producción, considerando condiciones favorables para la agricultura y un crecimiento en la producción de productos agrícolas.</t>
   </si>
   <si>
-    <t xml:space="preserve">Esceenario de producción baja </t>
+    <t xml:space="preserve">Escenario de producción baja </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Debido a que el software es licenciado no se pudo revisar el modelo ni sus archivos nativos, la información consignada es extraida del informe asociado </t>
+  </si>
+  <si>
+    <t>Transporte de carga, modelo numérico, arroz, producción histórica, producción baja, producción alta, TransCad</t>
+  </si>
+  <si>
+    <t>PR1002</t>
+  </si>
+  <si>
+    <t>Modelación Pasajeros</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0019/02_PRODUCTOS/TOMO I INFORME FINAL/TOMO I A/Transporte/Anexos/Modelación Pasajeros.File folder</t>
+  </si>
+  <si>
+    <t>El modelo de pasajeros se centra en la movilización de personas y tiene como objetivo evaluar la demanda actual y futura de transporte, considerando variables socioeconómicas y patrones de viaje. Este modelo también se enfoca en estudiar las preferencias de los usuarios en relación con los modos de transporte, horarios y costos, lo que permite adaptar la oferta a las necesidades de la población. A través de la optimización de servicios de transporte, se proponen mejoras en la frecuencia, capacidad y rutas del transporte público, asegurando que se satisfagan las necesidades de movilidad de los usuarios. Además, se realiza una evaluación del impacto del transporte en la calidad de vida de los ciudadanos y en el desarrollo económico de la región.</t>
+  </si>
+  <si>
+    <t>Escenario Base</t>
+  </si>
+  <si>
+    <t>Este escenario se basa en los patrones de viaje actuales y en datos históricos de uso del transporte, sirviendo como referencia para las proyecciones.</t>
+  </si>
+  <si>
+    <t>Escenario Optimista</t>
+  </si>
+  <si>
+    <t>Este escenario considera un aumento en la demanda de transporte de pasajeros, posiblemente debido a factores como el crecimiento económico, mejoras en la infraestructura de transporte o un aumento en la población.</t>
+  </si>
+  <si>
+    <t>Escenario Pesimista</t>
+  </si>
+  <si>
+    <t>Este escenario contempla una disminución en la demanda de transporte de pasajeros, que podría ser el resultado de factores adversos como crisis económicas, cambios en las políticas de transporte o disminución de la población.</t>
   </si>
   <si>
     <t xml:space="preserve">Debido a que el software el licenciado no se pudo revisar el modelo ni sus archivos nativos, la información consignada es extraida del informe asociado </t>
   </si>
   <si>
-    <t>Transporte de carga, modelo numérico, arroz, producción histórica, producción baja, producción alta, TransCad</t>
-  </si>
-  <si>
-    <t>PR1002</t>
-  </si>
-  <si>
-    <t>Modelación Pasajeros</t>
-  </si>
-  <si>
-    <t>El modelo de pasajeros se centra en la movilización de personas y tiene como objetivo evaluar la demanda actual y futura de transporte, considerando variables socioeconómicas y patrones de viaje. Este modelo también se enfoca en estudiar las preferencias de los usuarios en relación con los modos de transporte, horarios y costos, lo que permite adaptar la oferta a las necesidades de la población. A través de la optimización de servicios de transporte, se proponen mejoras en la frecuencia, capacidad y rutas del transporte público, asegurando que se satisfagan las necesidades de movilidad de los usuarios. Además, se realiza una evaluación del impacto del transporte en la calidad de vida de los ciudadanos y en el desarrollo económico de la región.</t>
-  </si>
-  <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0019/02_PRODUCTOS/TOMO I INFORME FINAL/TOMO I A/Transporte/Anexos/Modelación Pasajeros</t>
-  </si>
-  <si>
-    <t>Escenario Base</t>
-  </si>
-  <si>
-    <t>Este escenario se basa en los patrones de viaje actuales y en datos históricos de uso del transporte, sirviendo como referencia para las proyecciones.</t>
-  </si>
-  <si>
-    <t>Escenario Optimista</t>
-  </si>
-  <si>
-    <t>Este escenario considera un aumento en la demanda de transporte de pasajeros, posiblemente debido a factores como el crecimiento económico, mejoras en la infraestructura de transporte o un aumento en la población.</t>
-  </si>
-  <si>
-    <t>Escenario Pesimista</t>
-  </si>
-  <si>
-    <t>Este escenario contempla una disminución en la demanda de transporte de pasajeros, que podría ser el resultado de factores adversos como crisis económicas, cambios en las políticas de transporte o disminución de la población.</t>
-  </si>
-  <si>
-    <t>Transporte de pasajeros, modelo numérico, pasajeros, Escenario base, Escenario pesimista, Escenario optimista</t>
+    <t>Transporte de pasajeros, modelo numérico, pasajeros, escenario base, escenario pesimista, escenario optimista</t>
   </si>
   <si>
     <t>PR1003</t>
@@ -276,7 +326,7 @@
     <t xml:space="preserve">Debido a que no se cuentan con archivos nativos del modelo no se pudo revisar el modelo ni sus archivos nativos, la información consignada es extraida del informe asociado </t>
   </si>
   <si>
-    <t xml:space="preserve">Modelo Hidrodinámico, Modelo 1D, Unidimensional, HecRas, caudal, niveles de excedencia, Achí, Boca del Cura, Guaranda, Caregato, San Jacinto del Cauca, Tenche, Santa Anita y Nuevo Mundo </t>
+    <t xml:space="preserve">Modelo hidrodinámico, modelo 1D, unidimensional, HecRas, caudal, niveles de excedencia, Achí, Boca del Cura, Guaranda, Caregato, San Jacinto del Cauca, Tenche, Santa Anita y Nuevo Mundo </t>
   </si>
   <si>
     <t>PR1004</t>
@@ -303,14 +353,14 @@
     <t>Este escenario se enfoca en simular los caudales más altos posibles, permitiendo evaluar el comportamiento del río y las estructuras hidráulicas bajo condiciones extremas, así como el potencial de erosión y sedimentación en los sectores de estudio.</t>
   </si>
   <si>
-    <t xml:space="preserve">Modelo Hidrodinámico, Modelo 2D, Bidimensional, Mike 21, caudal, niveles de excedencia, Achí, Boca del Cura, Guaranda, Caregato, San Jacinto del Cauca, Tenche, Santa Anita y Nuevo Mundo </t>
+    <t xml:space="preserve">Modelo hidrodinámico, modelo 2D, Bidimensional, Mike 21, caudal, niveles de excedencia, Achí, Boca del Cura, Guaranda, Caregato, San Jacinto del Cauca, Tenche, Santa Anita y Nuevo Mundo </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -319,12 +369,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -354,9 +410,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -637,15 +694,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AT5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <cols>
+    <col min="9" max="9" width="14.5703125" customWidth="1"/>
+    <col min="10" max="10" width="16.85546875" customWidth="1"/>
+    <col min="14" max="14" width="19.140625" customWidth="1"/>
+    <col min="15" max="15" width="18.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:46">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -748,421 +811,601 @@
       <c r="AH1" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="AI1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>45</v>
+      </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>34</v>
+    <row r="2" spans="1:46">
+      <c r="A2" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D2" s="1">
+        <v>48</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="1">
         <v>2012</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="F2" s="1" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="N2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="X2" s="1">
+        <v>3</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AH2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AJ2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AL2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AM2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AN2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AO2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AP2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AQ2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AR2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AS2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AT2" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:46">
+      <c r="A3" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="O2" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="V2" s="1">
+      <c r="B3" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E3" s="1">
+        <v>2012</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="X3" s="1">
         <v>3</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="Y3" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AD3" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AE3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AF3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AH3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AJ3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AL3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AM3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AN3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AO3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AP3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AQ3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AR3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AS3" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AT3" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:46">
+      <c r="A4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" s="1">
+        <v>2012</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="X2" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="Y2" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AA2" s="1" t="s">
+      <c r="H4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="L4" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="AB2" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AC2" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AD2" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AE2" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF2" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AG2" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="AH2" s="1" t="s">
-        <v>56</v>
+      <c r="N4" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="X4" s="1">
+        <v>3</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z4" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA4" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AB4" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AC4" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AD4" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AE4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AF4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AH4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AJ4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AL4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AM4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AN4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AO4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AP4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AQ4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AR4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AS4" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AT4" s="1" t="s">
+        <v>96</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D3" s="1">
+    <row r="5" spans="1:46">
+      <c r="A5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" s="1">
         <v>2012</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H3" s="1" t="s">
+      <c r="F5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q5" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="M3" s="1" t="s">
+      <c r="R5" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="N3" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="V3" s="1">
-        <v>3</v>
-      </c>
-      <c r="W3" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="X3" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y3" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="Z3" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="AA3" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="AB3" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AC3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AD3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AE3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AG3" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AH3" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D4" s="1">
-        <v>2012</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="T4" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="U4" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="V4" s="1">
-        <v>3</v>
-      </c>
-      <c r="W4" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="X4" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="Y4" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="Z4" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="AA4" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="AB4" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="AC4" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AD4" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AE4" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF4" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AG4" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="AH4" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D5" s="1">
-        <v>2012</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="R5" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="S5" s="1" t="s">
-        <v>39</v>
+        <v>88</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="V5" s="1">
+        <v>52</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="X5" s="1">
         <v>2</v>
       </c>
-      <c r="W5" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="X5" s="1" t="s">
-        <v>89</v>
-      </c>
       <c r="Y5" s="1" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="Z5" s="1" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="AA5" s="1" t="s">
-        <v>39</v>
+        <v>103</v>
       </c>
       <c r="AB5" s="1" t="s">
-        <v>39</v>
+        <v>104</v>
       </c>
       <c r="AC5" s="1" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="AD5" s="1" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="AE5" s="1" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="AF5" s="1" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="AG5" s="1" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="AH5" s="1" t="s">
-        <v>92</v>
+        <v>52</v>
+      </c>
+      <c r="AI5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AJ5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AL5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AM5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AN5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AO5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AP5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AQ5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AR5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AS5" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AT5" s="1" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
